--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -673,7 +673,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,7 +735,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -746,13 +746,13 @@
         <v>610</v>
       </c>
       <c r="D2" t="n">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -774,13 +774,13 @@
         <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -791,91 +791,91 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>410</v>
+        <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>309</v>
+        <v>573</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>16</v>
       </c>
       <c r="G4" t="n">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>610</v>
+        <v>410</v>
       </c>
       <c r="D5" t="n">
-        <v>574</v>
+        <v>309</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="H5" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45848</v>
+        <v>45845</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>410</v>
+        <v>610</v>
       </c>
       <c r="D6" t="n">
-        <v>309</v>
+        <v>574</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
+        <v>15</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" t="n">
         <v>16</v>
-      </c>
-      <c r="G6" t="n">
-        <v>84</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -903,35 +903,35 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>945</v>
+        <v>410</v>
       </c>
       <c r="D8" t="n">
-        <v>894</v>
+        <v>309</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="H8" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45848</v>
+        <v>45846</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -987,63 +987,63 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45847</v>
+        <v>45845</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>945</v>
+        <v>410</v>
       </c>
       <c r="D11" t="n">
-        <v>894</v>
+        <v>309</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="H11" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45846</v>
+        <v>45849</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>922</v>
+        <v>894</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H12" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45845</v>
+        <v>45848</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1071,35 +1071,35 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45848</v>
+        <v>45847</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>945</v>
       </c>
       <c r="D14" t="n">
-        <v>922</v>
+        <v>894</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H14" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45847</v>
+        <v>45846</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1127,35 +1127,35 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
         <v>15</v>
       </c>
       <c r="H16" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45845</v>
+        <v>45849</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1187,14 +1187,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>945</v>
       </c>
       <c r="D18" t="n">
-        <v>906</v>
+        <v>922</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -1215,14 +1215,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>906</v>
+        <v>922</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1231,10 +1231,10 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
@@ -1243,26 +1243,26 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>793</v>
+        <v>906</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>15</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
@@ -1271,14 +1271,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>945</v>
       </c>
       <c r="D21" t="n">
-        <v>906</v>
+        <v>922</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1287,99 +1287,99 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>945</v>
       </c>
       <c r="D22" t="n">
-        <v>793</v>
+        <v>906</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
         <v>15</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>945</v>
       </c>
       <c r="D23" t="n">
-        <v>793</v>
+        <v>906</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
         <v>15</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>315</v>
+        <v>945</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>906</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>315</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1407,55 +1407,55 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45848</v>
+        <v>45845</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>315</v>
+        <v>945</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>906</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>315</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>masterdata-khm</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>315</v>
+        <v>945</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>793</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>315</v>
+        <v>137</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1463,55 +1463,55 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-khm</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D28" t="n">
-        <v>329</v>
+        <v>793</v>
       </c>
       <c r="E28" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H28" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>masterdata-khm</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>315</v>
+        <v>945</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>793</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>315</v>
+        <v>137</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1519,192 +1519,192 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45848</v>
+        <v>45846</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>509</v>
+        <v>315</v>
       </c>
       <c r="D30" t="n">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>34</v>
+        <v>315</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45847</v>
+        <v>45845</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-khm</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D31" t="n">
-        <v>329</v>
+        <v>793</v>
       </c>
       <c r="E31" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H31" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45846</v>
+        <v>45849</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="D32" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>17</v>
+        <v>315</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45845</v>
+        <v>45848</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>509</v>
+        <v>315</v>
       </c>
       <c r="D33" t="n">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>34</v>
+        <v>315</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45848</v>
+        <v>45847</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="D34" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>17</v>
+        <v>315</v>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45847</v>
+        <v>45846</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>288</v>
+        <v>509</v>
       </c>
       <c r="D35" t="n">
-        <v>92</v>
+        <v>329</v>
       </c>
       <c r="E35" t="n">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="F35" t="n">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1126</v>
+        <v>315</v>
       </c>
       <c r="D36" t="n">
-        <v>1073</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>50</v>
+        <v>315</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1715,30 +1715,30 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45845</v>
+        <v>45849</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>288</v>
+        <v>509</v>
       </c>
       <c r="D37" t="n">
-        <v>97</v>
+        <v>329</v>
       </c>
       <c r="E37" t="n">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="F37" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -1747,26 +1747,26 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1126</v>
+        <v>509</v>
       </c>
       <c r="D38" t="n">
-        <v>1078</v>
+        <v>329</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F38" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
@@ -1775,53 +1775,305 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1126</v>
+        <v>509</v>
       </c>
       <c r="D39" t="n">
-        <v>1068</v>
+        <v>329</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="F39" t="n">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>288</v>
+      </c>
+      <c r="D40" t="n">
+        <v>97</v>
+      </c>
+      <c r="E40" t="n">
+        <v>163</v>
+      </c>
+      <c r="F40" t="n">
+        <v>17</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
         <v>45845</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>509</v>
+      </c>
+      <c r="D41" t="n">
+        <v>329</v>
+      </c>
+      <c r="E41" t="n">
+        <v>134</v>
+      </c>
+      <c r="F41" t="n">
+        <v>34</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>288</v>
+      </c>
+      <c r="D42" t="n">
+        <v>97</v>
+      </c>
+      <c r="E42" t="n">
+        <v>163</v>
+      </c>
+      <c r="F42" t="n">
+        <v>17</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2</v>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>288</v>
+      </c>
+      <c r="D43" t="n">
+        <v>97</v>
+      </c>
+      <c r="E43" t="n">
+        <v>163</v>
+      </c>
+      <c r="F43" t="n">
+        <v>17</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>288</v>
+      </c>
+      <c r="D44" t="n">
+        <v>92</v>
+      </c>
+      <c r="E44" t="n">
+        <v>116</v>
+      </c>
+      <c r="F44" t="n">
+        <v>69</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C40" t="n">
+      <c r="C45" t="n">
         <v>1126</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D45" t="n">
+        <v>1073</v>
+      </c>
+      <c r="E45" t="n">
+        <v>3</v>
+      </c>
+      <c r="F45" t="n">
+        <v>50</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>288</v>
+      </c>
+      <c r="D46" t="n">
+        <v>97</v>
+      </c>
+      <c r="E46" t="n">
+        <v>162</v>
+      </c>
+      <c r="F46" t="n">
+        <v>18</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1078</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>48</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1068</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" t="n">
+        <v>57</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D49" t="n">
         <v>1076</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E49" t="n">
         <v>2</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F49" t="n">
         <v>48</v>
       </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -673,7 +673,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,7 +735,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -746,13 +746,13 @@
         <v>610</v>
       </c>
       <c r="D2" t="n">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -774,13 +774,13 @@
         <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -802,13 +802,13 @@
         <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -819,58 +819,58 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>410</v>
+        <v>610</v>
       </c>
       <c r="D5" t="n">
-        <v>309</v>
+        <v>573</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>16</v>
       </c>
       <c r="G5" t="n">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45845</v>
+        <v>45852</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>610</v>
+        <v>414</v>
       </c>
       <c r="D6" t="n">
-        <v>574</v>
+        <v>313</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="H6" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -935,23 +935,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>410</v>
+        <v>1126</v>
       </c>
       <c r="D9" t="n">
-        <v>309</v>
+        <v>1068</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="G9" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45846</v>
+        <v>45852</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -987,35 +987,35 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45845</v>
+        <v>45849</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>410</v>
+        <v>945</v>
       </c>
       <c r="D11" t="n">
-        <v>309</v>
+        <v>894</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45849</v>
+        <v>45848</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1043,63 +1043,63 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>945</v>
       </c>
       <c r="D13" t="n">
-        <v>894</v>
+        <v>922</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>945</v>
       </c>
       <c r="D14" t="n">
-        <v>894</v>
+        <v>922</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1127,30 +1127,30 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45845</v>
+        <v>45852</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>894</v>
+        <v>906</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>15</v>
       </c>
       <c r="H16" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
@@ -1159,14 +1159,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>945</v>
       </c>
       <c r="D17" t="n">
-        <v>922</v>
+        <v>906</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
@@ -1187,14 +1187,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>945</v>
       </c>
       <c r="D18" t="n">
-        <v>922</v>
+        <v>906</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1203,371 +1203,371 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45847</v>
+        <v>45852</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-khm</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>922</v>
+        <v>793</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H19" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45846</v>
+        <v>45849</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-khm</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>906</v>
+        <v>793</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="G20" t="n">
         <v>15</v>
       </c>
       <c r="H20" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45845</v>
+        <v>45848</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-khm</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>945</v>
       </c>
       <c r="D21" t="n">
-        <v>922</v>
+        <v>793</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H21" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>945</v>
+        <v>315</v>
       </c>
       <c r="D22" t="n">
-        <v>906</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>315</v>
       </c>
       <c r="G22" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>945</v>
+        <v>315</v>
       </c>
       <c r="D23" t="n">
-        <v>906</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>315</v>
       </c>
       <c r="G23" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>945</v>
+        <v>315</v>
       </c>
       <c r="D24" t="n">
-        <v>906</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>315</v>
       </c>
       <c r="G24" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45846</v>
+        <v>45852</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D25" t="n">
-        <v>793</v>
+        <v>329</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F25" t="n">
-        <v>137</v>
+        <v>34</v>
       </c>
       <c r="G25" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45845</v>
+        <v>45849</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D26" t="n">
-        <v>906</v>
+        <v>329</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G26" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45849</v>
+        <v>45848</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D27" t="n">
-        <v>793</v>
+        <v>329</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F27" t="n">
-        <v>137</v>
+        <v>34</v>
       </c>
       <c r="G27" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>945</v>
+        <v>288</v>
       </c>
       <c r="D28" t="n">
-        <v>793</v>
+        <v>97</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="F28" t="n">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="G28" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>945</v>
+        <v>288</v>
       </c>
       <c r="D29" t="n">
-        <v>793</v>
+        <v>97</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="F29" t="n">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="G29" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="F30" t="n">
-        <v>315</v>
+        <v>17</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45845</v>
+        <v>45849</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>945</v>
+        <v>1126</v>
       </c>
       <c r="D31" t="n">
-        <v>793</v>
+        <v>1075</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="G31" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1575,505 +1575,29 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45849</v>
+        <v>45848</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>315</v>
+        <v>1126</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1078</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>315</v>
+        <v>48</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>315</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>315</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>315</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>315</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>45846</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>509</v>
-      </c>
-      <c r="D35" t="n">
-        <v>329</v>
-      </c>
-      <c r="E35" t="n">
-        <v>134</v>
-      </c>
-      <c r="F35" t="n">
-        <v>34</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>315</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>315</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>509</v>
-      </c>
-      <c r="D37" t="n">
-        <v>329</v>
-      </c>
-      <c r="E37" t="n">
-        <v>134</v>
-      </c>
-      <c r="F37" t="n">
-        <v>34</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>509</v>
-      </c>
-      <c r="D38" t="n">
-        <v>329</v>
-      </c>
-      <c r="E38" t="n">
-        <v>134</v>
-      </c>
-      <c r="F38" t="n">
-        <v>34</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>509</v>
-      </c>
-      <c r="D39" t="n">
-        <v>329</v>
-      </c>
-      <c r="E39" t="n">
-        <v>134</v>
-      </c>
-      <c r="F39" t="n">
-        <v>34</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>45846</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>288</v>
-      </c>
-      <c r="D40" t="n">
-        <v>97</v>
-      </c>
-      <c r="E40" t="n">
-        <v>163</v>
-      </c>
-      <c r="F40" t="n">
-        <v>17</v>
-      </c>
-      <c r="G40" t="n">
-        <v>2</v>
-      </c>
-      <c r="H40" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>509</v>
-      </c>
-      <c r="D41" t="n">
-        <v>329</v>
-      </c>
-      <c r="E41" t="n">
-        <v>134</v>
-      </c>
-      <c r="F41" t="n">
-        <v>34</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>288</v>
-      </c>
-      <c r="D42" t="n">
-        <v>97</v>
-      </c>
-      <c r="E42" t="n">
-        <v>163</v>
-      </c>
-      <c r="F42" t="n">
-        <v>17</v>
-      </c>
-      <c r="G42" t="n">
-        <v>2</v>
-      </c>
-      <c r="H42" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>288</v>
-      </c>
-      <c r="D43" t="n">
-        <v>97</v>
-      </c>
-      <c r="E43" t="n">
-        <v>163</v>
-      </c>
-      <c r="F43" t="n">
-        <v>17</v>
-      </c>
-      <c r="G43" t="n">
-        <v>2</v>
-      </c>
-      <c r="H43" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>288</v>
-      </c>
-      <c r="D44" t="n">
-        <v>92</v>
-      </c>
-      <c r="E44" t="n">
-        <v>116</v>
-      </c>
-      <c r="F44" t="n">
-        <v>69</v>
-      </c>
-      <c r="G44" t="n">
-        <v>2</v>
-      </c>
-      <c r="H44" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>45846</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>1126</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1073</v>
-      </c>
-      <c r="E45" t="n">
-        <v>3</v>
-      </c>
-      <c r="F45" t="n">
-        <v>50</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>288</v>
-      </c>
-      <c r="D46" t="n">
-        <v>97</v>
-      </c>
-      <c r="E46" t="n">
-        <v>162</v>
-      </c>
-      <c r="F46" t="n">
-        <v>18</v>
-      </c>
-      <c r="G46" t="n">
-        <v>2</v>
-      </c>
-      <c r="H46" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>1126</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1078</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>48</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>1126</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1068</v>
-      </c>
-      <c r="E48" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" t="n">
-        <v>57</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>1126</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1076</v>
-      </c>
-      <c r="E49" t="n">
-        <v>2</v>
-      </c>
-      <c r="F49" t="n">
-        <v>48</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -673,7 +673,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,7 +735,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -746,13 +746,13 @@
         <v>610</v>
       </c>
       <c r="D2" t="n">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -774,13 +774,13 @@
         <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -802,13 +802,13 @@
         <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -830,13 +830,13 @@
         <v>610</v>
       </c>
       <c r="D5" t="n">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -858,13 +858,13 @@
         <v>414</v>
       </c>
       <c r="D6" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>78</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -883,27 +883,27 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D7" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -942,13 +942,13 @@
         <v>1126</v>
       </c>
       <c r="D9" t="n">
-        <v>1068</v>
+        <v>1078</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1570,34 +1570,6 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>1126</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1078</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>48</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -735,7 +735,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -746,13 +746,13 @@
         <v>610</v>
       </c>
       <c r="D2" t="n">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -774,13 +774,13 @@
         <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -802,13 +802,13 @@
         <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -830,13 +830,13 @@
         <v>610</v>
       </c>
       <c r="D5" t="n">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -858,13 +858,13 @@
         <v>414</v>
       </c>
       <c r="D6" t="n">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
         <v>78</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -886,13 +886,13 @@
         <v>414</v>
       </c>
       <c r="D7" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
         <v>78</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -911,55 +911,55 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D8" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1126</v>
+        <v>414</v>
       </c>
       <c r="D9" t="n">
-        <v>1078</v>
+        <v>313</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1043,35 +1043,35 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45853</v>
+        <v>45849</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>945</v>
+        <v>1126</v>
       </c>
       <c r="D13" t="n">
-        <v>922</v>
+        <v>1075</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1127,18 +1127,18 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45853</v>
+        <v>45852</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>906</v>
+        <v>922</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1147,15 +1147,15 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1211,35 +1211,35 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45853</v>
+        <v>45852</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>793</v>
+        <v>906</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>15</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1295,27 +1295,27 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45853</v>
+        <v>45852</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>masterdata-khm</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>315</v>
+        <v>945</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>793</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>315</v>
+        <v>137</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1323,35 +1323,35 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>315</v>
+        <v>509</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F23" t="n">
-        <v>315</v>
+        <v>34</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1379,63 +1379,63 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45853</v>
+        <v>45852</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>509</v>
+        <v>315</v>
       </c>
       <c r="D25" t="n">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>34</v>
+        <v>315</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>509</v>
+        <v>288</v>
       </c>
       <c r="D26" t="n">
-        <v>329</v>
+        <v>97</v>
       </c>
       <c r="E26" t="n">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="F26" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1463,63 +1463,63 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45853</v>
+        <v>45852</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>288</v>
+        <v>509</v>
       </c>
       <c r="D28" t="n">
-        <v>97</v>
+        <v>329</v>
       </c>
       <c r="E28" t="n">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="F28" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>288</v>
+        <v>1142</v>
       </c>
       <c r="D29" t="n">
-        <v>97</v>
+        <v>1083</v>
       </c>
       <c r="E29" t="n">
-        <v>163</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1547,30 +1547,30 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1126</v>
+        <v>288</v>
       </c>
       <c r="D31" t="n">
-        <v>1075</v>
+        <v>97</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="F31" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -673,7 +673,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,7 +735,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -746,13 +746,13 @@
         <v>610</v>
       </c>
       <c r="D2" t="n">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -763,91 +763,91 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>610</v>
+        <v>414</v>
       </c>
       <c r="D3" t="n">
-        <v>562</v>
+        <v>310</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="H3" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>610</v>
+        <v>414</v>
       </c>
       <c r="D4" t="n">
-        <v>577</v>
+        <v>312</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="H4" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>610</v>
+        <v>414</v>
       </c>
       <c r="D5" t="n">
-        <v>570</v>
+        <v>313</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="H5" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -858,13 +858,13 @@
         <v>414</v>
       </c>
       <c r="D6" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>78</v>
@@ -875,91 +875,91 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D7" t="n">
-        <v>312</v>
+        <v>894</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H7" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D8" t="n">
-        <v>313</v>
+        <v>894</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H8" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D9" t="n">
-        <v>313</v>
+        <v>894</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H9" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -987,91 +987,91 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>945</v>
       </c>
       <c r="D11" t="n">
-        <v>894</v>
+        <v>922</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>894</v>
+        <v>922</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1126</v>
+        <v>945</v>
       </c>
       <c r="D13" t="n">
-        <v>1075</v>
+        <v>922</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1099,18 +1099,18 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>922</v>
+        <v>906</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1119,26 +1119,26 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>922</v>
+        <v>906</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1147,15 +1147,15 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45854</v>
+        <v>45852</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1211,35 +1211,35 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-khm</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>906</v>
+        <v>793</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="G19" t="n">
         <v>15</v>
       </c>
       <c r="H19" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45854</v>
+        <v>45853</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45853</v>
+        <v>45852</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1407,63 +1407,63 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>288</v>
+        <v>509</v>
       </c>
       <c r="D26" t="n">
-        <v>97</v>
+        <v>329</v>
       </c>
       <c r="E26" t="n">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="F26" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>509</v>
+        <v>288</v>
       </c>
       <c r="D27" t="n">
-        <v>329</v>
+        <v>97</v>
       </c>
       <c r="E27" t="n">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="F27" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1491,35 +1491,35 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45854</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1142</v>
+        <v>288</v>
       </c>
       <c r="D29" t="n">
-        <v>1083</v>
+        <v>97</v>
       </c>
       <c r="E29" t="n">
+        <v>163</v>
+      </c>
+      <c r="F29" t="n">
+        <v>17</v>
+      </c>
+      <c r="G29" t="n">
         <v>2</v>
       </c>
-      <c r="F29" t="n">
-        <v>45</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1547,29 +1547,57 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1083</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" t="n">
+        <v>45</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C31" t="n">
+      <c r="C32" t="n">
         <v>288</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D32" t="n">
         <v>97</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E32" t="n">
         <v>163</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F32" t="n">
         <v>17</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G32" t="n">
         <v>2</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H32" t="n">
         <v>9</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -673,7 +673,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,7 +735,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -746,13 +746,13 @@
         <v>610</v>
       </c>
       <c r="D2" t="n">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -763,35 +763,35 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>414</v>
+        <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>310</v>
+        <v>585</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -802,13 +802,13 @@
         <v>414</v>
       </c>
       <c r="D4" t="n">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
         <v>78</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -830,13 +830,13 @@
         <v>414</v>
       </c>
       <c r="D5" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
         <v>78</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45855</v>
+        <v>45852</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -875,63 +875,63 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>945</v>
+        <v>414</v>
       </c>
       <c r="D7" t="n">
-        <v>894</v>
+        <v>311</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H7" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>945</v>
+        <v>414</v>
       </c>
       <c r="D8" t="n">
-        <v>894</v>
+        <v>313</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H8" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45855</v>
+        <v>45853</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -987,91 +987,91 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45854</v>
+        <v>45852</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>945</v>
       </c>
       <c r="D11" t="n">
-        <v>922</v>
+        <v>894</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H11" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45853</v>
+        <v>45856</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>922</v>
+        <v>894</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H12" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>945</v>
       </c>
       <c r="D13" t="n">
-        <v>922</v>
+        <v>894</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H13" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45855</v>
+        <v>45854</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1099,18 +1099,18 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45854</v>
+        <v>45853</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>906</v>
+        <v>922</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1119,26 +1119,26 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45853</v>
+        <v>45852</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>906</v>
+        <v>922</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1147,26 +1147,26 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45852</v>
+        <v>45856</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>945</v>
       </c>
       <c r="D17" t="n">
-        <v>906</v>
+        <v>922</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -1187,14 +1187,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>945</v>
       </c>
       <c r="D18" t="n">
-        <v>906</v>
+        <v>922</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -1215,26 +1215,26 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>793</v>
+        <v>906</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>15</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
@@ -1243,26 +1243,26 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>793</v>
+        <v>906</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>15</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
@@ -1271,107 +1271,107 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>945</v>
       </c>
       <c r="D21" t="n">
-        <v>793</v>
+        <v>906</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>15</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>945</v>
       </c>
       <c r="D22" t="n">
-        <v>793</v>
+        <v>906</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
         <v>15</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D23" t="n">
-        <v>329</v>
+        <v>906</v>
       </c>
       <c r="E23" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H23" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>masterdata-khm</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>315</v>
+        <v>945</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>793</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>315</v>
+        <v>137</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1379,27 +1379,27 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>masterdata-khm</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>315</v>
+        <v>945</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>793</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>315</v>
+        <v>137</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1407,198 +1407,450 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45855</v>
+        <v>45852</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-khm</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D26" t="n">
-        <v>329</v>
+        <v>793</v>
       </c>
       <c r="E26" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H26" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-khm</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D27" t="n">
-        <v>97</v>
+        <v>793</v>
       </c>
       <c r="E27" t="n">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H27" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-khm</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D28" t="n">
-        <v>329</v>
+        <v>793</v>
       </c>
       <c r="E28" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H28" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>288</v>
+        <v>509</v>
       </c>
       <c r="D29" t="n">
-        <v>97</v>
+        <v>329</v>
       </c>
       <c r="E29" t="n">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="F29" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45855</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="D30" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>17</v>
+        <v>315</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45854</v>
+        <v>45852</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1142</v>
+        <v>315</v>
       </c>
       <c r="D31" t="n">
-        <v>1083</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>509</v>
+      </c>
+      <c r="D32" t="n">
+        <v>329</v>
+      </c>
+      <c r="E32" t="n">
+        <v>134</v>
+      </c>
+      <c r="F32" t="n">
+        <v>34</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>509</v>
+      </c>
+      <c r="D33" t="n">
+        <v>329</v>
+      </c>
+      <c r="E33" t="n">
+        <v>134</v>
+      </c>
+      <c r="F33" t="n">
+        <v>34</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>288</v>
+      </c>
+      <c r="D34" t="n">
+        <v>97</v>
+      </c>
+      <c r="E34" t="n">
+        <v>163</v>
+      </c>
+      <c r="F34" t="n">
+        <v>17</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2</v>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
         <v>45853</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>509</v>
+      </c>
+      <c r="D35" t="n">
+        <v>329</v>
+      </c>
+      <c r="E35" t="n">
+        <v>134</v>
+      </c>
+      <c r="F35" t="n">
+        <v>34</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C32" t="n">
+      <c r="C36" t="n">
         <v>288</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D36" t="n">
         <v>97</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E36" t="n">
         <v>163</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F36" t="n">
         <v>17</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G36" t="n">
         <v>2</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H36" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>288</v>
+      </c>
+      <c r="D37" t="n">
+        <v>97</v>
+      </c>
+      <c r="E37" t="n">
+        <v>163</v>
+      </c>
+      <c r="F37" t="n">
+        <v>17</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>288</v>
+      </c>
+      <c r="D38" t="n">
+        <v>97</v>
+      </c>
+      <c r="E38" t="n">
+        <v>163</v>
+      </c>
+      <c r="F38" t="n">
+        <v>17</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2</v>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1083</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" t="n">
+        <v>45</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>288</v>
+      </c>
+      <c r="D40" t="n">
+        <v>97</v>
+      </c>
+      <c r="E40" t="n">
+        <v>163</v>
+      </c>
+      <c r="F40" t="n">
+        <v>17</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1085</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" t="n">
+        <v>43</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -356,31 +356,6 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>198</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="7620000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="10" name="Image 10" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -673,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,7 +710,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -746,13 +721,13 @@
         <v>610</v>
       </c>
       <c r="D2" t="n">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -763,7 +738,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -774,13 +749,13 @@
         <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -791,63 +766,63 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>414</v>
+        <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>310</v>
+        <v>585</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>414</v>
+        <v>1142</v>
       </c>
       <c r="D5" t="n">
-        <v>312</v>
+        <v>1083</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="G5" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45852</v>
+        <v>45859</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -858,13 +833,13 @@
         <v>414</v>
       </c>
       <c r="D6" t="n">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>78</v>
@@ -931,7 +906,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45854</v>
+        <v>45859</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -959,7 +934,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45853</v>
+        <v>45856</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -987,7 +962,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1015,63 +990,63 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>894</v>
+        <v>922</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>945</v>
       </c>
       <c r="D13" t="n">
-        <v>894</v>
+        <v>922</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1099,18 +1074,18 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45853</v>
+        <v>45859</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>922</v>
+        <v>906</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1119,26 +1094,26 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45852</v>
+        <v>45856</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>922</v>
+        <v>906</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1147,26 +1122,26 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45856</v>
+        <v>45855</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>945</v>
       </c>
       <c r="D17" t="n">
-        <v>922</v>
+        <v>906</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1175,122 +1150,122 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-khm</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>945</v>
       </c>
       <c r="D18" t="n">
-        <v>922</v>
+        <v>793</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H18" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-khm</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>906</v>
+        <v>793</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="G19" t="n">
         <v>15</v>
       </c>
       <c r="H19" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-khm</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>906</v>
+        <v>793</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="G20" t="n">
         <v>15</v>
       </c>
       <c r="H20" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45852</v>
+        <v>45859</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D21" t="n">
-        <v>906</v>
+        <v>329</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G21" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -1299,26 +1274,26 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D22" t="n">
-        <v>906</v>
+        <v>329</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G22" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -1327,110 +1302,110 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D23" t="n">
-        <v>906</v>
+        <v>329</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G23" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45854</v>
+        <v>45859</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>945</v>
+        <v>288</v>
       </c>
       <c r="D24" t="n">
-        <v>793</v>
+        <v>97</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="F24" t="n">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="G24" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45853</v>
+        <v>45856</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>945</v>
+        <v>288</v>
       </c>
       <c r="D25" t="n">
-        <v>793</v>
+        <v>97</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="F25" t="n">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="G25" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>945</v>
+        <v>288</v>
       </c>
       <c r="D26" t="n">
-        <v>793</v>
+        <v>97</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="F26" t="n">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="G26" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -1439,417 +1414,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>945</v>
+        <v>1142</v>
       </c>
       <c r="D27" t="n">
-        <v>793</v>
+        <v>1085</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="G27" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>masterdata-khm</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>945</v>
-      </c>
-      <c r="D28" t="n">
-        <v>793</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>137</v>
-      </c>
-      <c r="G28" t="n">
-        <v>15</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>45854</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>509</v>
-      </c>
-      <c r="D29" t="n">
-        <v>329</v>
-      </c>
-      <c r="E29" t="n">
-        <v>134</v>
-      </c>
-      <c r="F29" t="n">
-        <v>34</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>315</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>315</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>45852</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>315</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>315</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>45856</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>509</v>
-      </c>
-      <c r="D32" t="n">
-        <v>329</v>
-      </c>
-      <c r="E32" t="n">
-        <v>134</v>
-      </c>
-      <c r="F32" t="n">
-        <v>34</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>509</v>
-      </c>
-      <c r="D33" t="n">
-        <v>329</v>
-      </c>
-      <c r="E33" t="n">
-        <v>134</v>
-      </c>
-      <c r="F33" t="n">
-        <v>34</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>45854</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>288</v>
-      </c>
-      <c r="D34" t="n">
-        <v>97</v>
-      </c>
-      <c r="E34" t="n">
-        <v>163</v>
-      </c>
-      <c r="F34" t="n">
-        <v>17</v>
-      </c>
-      <c r="G34" t="n">
-        <v>2</v>
-      </c>
-      <c r="H34" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>509</v>
-      </c>
-      <c r="D35" t="n">
-        <v>329</v>
-      </c>
-      <c r="E35" t="n">
-        <v>134</v>
-      </c>
-      <c r="F35" t="n">
-        <v>34</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>45852</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>288</v>
-      </c>
-      <c r="D36" t="n">
-        <v>97</v>
-      </c>
-      <c r="E36" t="n">
-        <v>163</v>
-      </c>
-      <c r="F36" t="n">
-        <v>17</v>
-      </c>
-      <c r="G36" t="n">
-        <v>2</v>
-      </c>
-      <c r="H36" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>45856</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>288</v>
-      </c>
-      <c r="D37" t="n">
-        <v>97</v>
-      </c>
-      <c r="E37" t="n">
-        <v>163</v>
-      </c>
-      <c r="F37" t="n">
-        <v>17</v>
-      </c>
-      <c r="G37" t="n">
-        <v>2</v>
-      </c>
-      <c r="H37" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>288</v>
-      </c>
-      <c r="D38" t="n">
-        <v>97</v>
-      </c>
-      <c r="E38" t="n">
-        <v>163</v>
-      </c>
-      <c r="F38" t="n">
-        <v>17</v>
-      </c>
-      <c r="G38" t="n">
-        <v>2</v>
-      </c>
-      <c r="H38" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>45854</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>1142</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1083</v>
-      </c>
-      <c r="E39" t="n">
-        <v>2</v>
-      </c>
-      <c r="F39" t="n">
-        <v>45</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>288</v>
-      </c>
-      <c r="D40" t="n">
-        <v>97</v>
-      </c>
-      <c r="E40" t="n">
-        <v>163</v>
-      </c>
-      <c r="F40" t="n">
-        <v>17</v>
-      </c>
-      <c r="G40" t="n">
-        <v>2</v>
-      </c>
-      <c r="H40" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>45856</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>1142</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1085</v>
-      </c>
-      <c r="E41" t="n">
-        <v>2</v>
-      </c>
-      <c r="F41" t="n">
-        <v>43</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
         <v>12</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,7 +710,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -721,13 +721,13 @@
         <v>610</v>
       </c>
       <c r="D2" t="n">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -749,13 +749,13 @@
         <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -777,13 +777,13 @@
         <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -794,35 +794,35 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1142</v>
+        <v>610</v>
       </c>
       <c r="D5" t="n">
-        <v>1083</v>
+        <v>585</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -833,13 +833,13 @@
         <v>414</v>
       </c>
       <c r="D6" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>78</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -889,13 +889,13 @@
         <v>414</v>
       </c>
       <c r="D8" t="n">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
         <v>78</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45859</v>
+        <v>45855</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -990,35 +990,35 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45859</v>
+        <v>45856</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>922</v>
+        <v>894</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H12" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45856</v>
+        <v>45855</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45855</v>
+        <v>45860</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1078,14 +1078,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>906</v>
+        <v>922</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1094,10 +1094,10 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
@@ -1106,14 +1106,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>906</v>
+        <v>922</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1122,10 +1122,10 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
@@ -1158,281 +1158,449 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>945</v>
       </c>
       <c r="D18" t="n">
-        <v>793</v>
+        <v>906</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>15</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>793</v>
+        <v>906</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>15</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>793</v>
+        <v>906</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>15</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45859</v>
+        <v>45855</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-khm</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D21" t="n">
-        <v>329</v>
+        <v>793</v>
       </c>
       <c r="E21" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H21" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-khm</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D22" t="n">
-        <v>329</v>
+        <v>793</v>
       </c>
       <c r="E22" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H22" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-khm</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D23" t="n">
-        <v>329</v>
+        <v>793</v>
       </c>
       <c r="E23" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H23" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45859</v>
+        <v>45856</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-khm</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D24" t="n">
-        <v>97</v>
+        <v>793</v>
       </c>
       <c r="E24" t="n">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H24" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45856</v>
+        <v>45855</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>288</v>
+        <v>509</v>
       </c>
       <c r="D25" t="n">
-        <v>97</v>
+        <v>329</v>
       </c>
       <c r="E25" t="n">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="F25" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45855</v>
+        <v>45860</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>288</v>
+        <v>509</v>
       </c>
       <c r="D26" t="n">
-        <v>97</v>
+        <v>329</v>
       </c>
       <c r="E26" t="n">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="F26" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>509</v>
+      </c>
+      <c r="D27" t="n">
+        <v>329</v>
+      </c>
+      <c r="E27" t="n">
+        <v>134</v>
+      </c>
+      <c r="F27" t="n">
+        <v>34</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>45856</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>509</v>
+      </c>
+      <c r="D28" t="n">
+        <v>329</v>
+      </c>
+      <c r="E28" t="n">
+        <v>134</v>
+      </c>
+      <c r="F28" t="n">
+        <v>34</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>288</v>
+      </c>
+      <c r="D29" t="n">
+        <v>97</v>
+      </c>
+      <c r="E29" t="n">
+        <v>163</v>
+      </c>
+      <c r="F29" t="n">
+        <v>17</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>288</v>
+      </c>
+      <c r="D30" t="n">
+        <v>97</v>
+      </c>
+      <c r="E30" t="n">
+        <v>163</v>
+      </c>
+      <c r="F30" t="n">
+        <v>17</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>288</v>
+      </c>
+      <c r="D31" t="n">
+        <v>97</v>
+      </c>
+      <c r="E31" t="n">
+        <v>163</v>
+      </c>
+      <c r="F31" t="n">
+        <v>17</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C27" t="n">
+      <c r="C32" t="n">
         <v>1142</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D32" t="n">
+        <v>1089</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>41</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D33" t="n">
         <v>1085</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E33" t="n">
         <v>2</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F33" t="n">
         <v>43</v>
       </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
         <v>12</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,7 +710,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -721,13 +721,13 @@
         <v>610</v>
       </c>
       <c r="D2" t="n">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -749,13 +749,13 @@
         <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -777,13 +777,13 @@
         <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -805,13 +805,13 @@
         <v>610</v>
       </c>
       <c r="D5" t="n">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -833,13 +833,13 @@
         <v>414</v>
       </c>
       <c r="D6" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>78</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -861,13 +861,13 @@
         <v>414</v>
       </c>
       <c r="D7" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
         <v>78</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -906,35 +906,35 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>945</v>
+        <v>1142</v>
       </c>
       <c r="D9" t="n">
-        <v>894</v>
+        <v>1085</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="G9" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45855</v>
+        <v>45861</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1102,18 +1102,18 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45856</v>
+        <v>45861</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>922</v>
+        <v>906</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1122,15 +1122,15 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45855</v>
+        <v>45860</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45860</v>
+        <v>45859</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1186,63 +1186,63 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-khm</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>906</v>
+        <v>793</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="G19" t="n">
         <v>15</v>
       </c>
       <c r="H19" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-khm</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>906</v>
+        <v>793</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="G20" t="n">
         <v>15</v>
       </c>
       <c r="H20" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1270,114 +1270,114 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D22" t="n">
-        <v>793</v>
+        <v>329</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F22" t="n">
-        <v>137</v>
+        <v>34</v>
       </c>
       <c r="G22" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D23" t="n">
-        <v>793</v>
+        <v>329</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F23" t="n">
-        <v>137</v>
+        <v>34</v>
       </c>
       <c r="G23" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D24" t="n">
-        <v>793</v>
+        <v>329</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F24" t="n">
-        <v>137</v>
+        <v>34</v>
       </c>
       <c r="G24" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45855</v>
+        <v>45861</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>509</v>
+        <v>288</v>
       </c>
       <c r="D25" t="n">
-        <v>329</v>
+        <v>97</v>
       </c>
       <c r="E25" t="n">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="F25" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1386,26 +1386,26 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>509</v>
+        <v>288</v>
       </c>
       <c r="D26" t="n">
-        <v>329</v>
+        <v>97</v>
       </c>
       <c r="E26" t="n">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="F26" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -1414,48 +1414,48 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>509</v>
+        <v>288</v>
       </c>
       <c r="D27" t="n">
-        <v>329</v>
+        <v>97</v>
       </c>
       <c r="E27" t="n">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="F27" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45856</v>
+        <v>45861</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>509</v>
+        <v>1142</v>
       </c>
       <c r="D28" t="n">
-        <v>329</v>
+        <v>1087</v>
       </c>
       <c r="E28" t="n">
-        <v>134</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1470,137 +1470,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>288</v>
+        <v>1142</v>
       </c>
       <c r="D29" t="n">
-        <v>97</v>
+        <v>1089</v>
       </c>
       <c r="E29" t="n">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>288</v>
-      </c>
-      <c r="D30" t="n">
-        <v>97</v>
-      </c>
-      <c r="E30" t="n">
-        <v>163</v>
-      </c>
-      <c r="F30" t="n">
-        <v>17</v>
-      </c>
-      <c r="G30" t="n">
-        <v>2</v>
-      </c>
-      <c r="H30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>45856</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>288</v>
-      </c>
-      <c r="D31" t="n">
-        <v>97</v>
-      </c>
-      <c r="E31" t="n">
-        <v>163</v>
-      </c>
-      <c r="F31" t="n">
-        <v>17</v>
-      </c>
-      <c r="G31" t="n">
-        <v>2</v>
-      </c>
-      <c r="H31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>45860</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>1142</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1089</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>41</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>45856</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>1142</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1085</v>
-      </c>
-      <c r="E33" t="n">
-        <v>2</v>
-      </c>
-      <c r="F33" t="n">
-        <v>43</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
         <v>12</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,7 +710,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -721,13 +721,13 @@
         <v>610</v>
       </c>
       <c r="D2" t="n">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -749,13 +749,13 @@
         <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -777,13 +777,13 @@
         <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -805,13 +805,13 @@
         <v>610</v>
       </c>
       <c r="D5" t="n">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -833,13 +833,13 @@
         <v>414</v>
       </c>
       <c r="D6" t="n">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>78</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -861,13 +861,13 @@
         <v>414</v>
       </c>
       <c r="D7" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
         <v>78</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -889,13 +889,13 @@
         <v>414</v>
       </c>
       <c r="D8" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
         <v>78</v>
@@ -906,35 +906,35 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1142</v>
+        <v>414</v>
       </c>
       <c r="D9" t="n">
-        <v>1085</v>
+        <v>311</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="H9" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1018,35 +1018,35 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45861</v>
+        <v>45859</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>945</v>
       </c>
       <c r="D13" t="n">
-        <v>922</v>
+        <v>894</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H13" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1102,18 +1102,18 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45861</v>
+        <v>45860</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>906</v>
+        <v>922</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1122,26 +1122,26 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45860</v>
+        <v>45859</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>945</v>
       </c>
       <c r="D17" t="n">
-        <v>906</v>
+        <v>922</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1150,15 +1150,15 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45859</v>
+        <v>45862</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1190,26 +1190,26 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>793</v>
+        <v>906</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>15</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
@@ -1218,26 +1218,26 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>793</v>
+        <v>906</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>15</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
@@ -1246,216 +1246,216 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>945</v>
       </c>
       <c r="D21" t="n">
-        <v>793</v>
+        <v>906</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>15</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-khm</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D22" t="n">
-        <v>329</v>
+        <v>793</v>
       </c>
       <c r="E22" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H22" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-khm</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D23" t="n">
-        <v>329</v>
+        <v>793</v>
       </c>
       <c r="E23" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H23" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-khm</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D24" t="n">
-        <v>329</v>
+        <v>793</v>
       </c>
       <c r="E24" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H24" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45861</v>
+        <v>45859</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-khm</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D25" t="n">
-        <v>97</v>
+        <v>793</v>
       </c>
       <c r="E25" t="n">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H25" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>288</v>
+        <v>509</v>
       </c>
       <c r="D26" t="n">
-        <v>97</v>
+        <v>329</v>
       </c>
       <c r="E26" t="n">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="F26" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>288</v>
+        <v>509</v>
       </c>
       <c r="D27" t="n">
-        <v>97</v>
+        <v>329</v>
       </c>
       <c r="E27" t="n">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="F27" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45861</v>
+        <v>45860</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1142</v>
+        <v>509</v>
       </c>
       <c r="D28" t="n">
-        <v>1087</v>
+        <v>329</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>134</v>
       </c>
       <c r="F28" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1466,29 +1466,197 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>509</v>
+      </c>
+      <c r="D29" t="n">
+        <v>329</v>
+      </c>
+      <c r="E29" t="n">
+        <v>134</v>
+      </c>
+      <c r="F29" t="n">
+        <v>34</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>288</v>
+      </c>
+      <c r="D30" t="n">
+        <v>97</v>
+      </c>
+      <c r="E30" t="n">
+        <v>163</v>
+      </c>
+      <c r="F30" t="n">
+        <v>17</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>288</v>
+      </c>
+      <c r="D31" t="n">
+        <v>97</v>
+      </c>
+      <c r="E31" t="n">
+        <v>163</v>
+      </c>
+      <c r="F31" t="n">
+        <v>17</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
         <v>45860</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>288</v>
+      </c>
+      <c r="D32" t="n">
+        <v>97</v>
+      </c>
+      <c r="E32" t="n">
+        <v>163</v>
+      </c>
+      <c r="F32" t="n">
+        <v>17</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>288</v>
+      </c>
+      <c r="D33" t="n">
+        <v>97</v>
+      </c>
+      <c r="E33" t="n">
+        <v>163</v>
+      </c>
+      <c r="F33" t="n">
+        <v>17</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C29" t="n">
+      <c r="C34" t="n">
         <v>1142</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D34" t="n">
+        <v>1087</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" t="n">
+        <v>41</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D35" t="n">
         <v>1089</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>41</v>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>12</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,7 +710,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -721,13 +721,13 @@
         <v>610</v>
       </c>
       <c r="D2" t="n">
-        <v>572</v>
+        <v>51</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="F2" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -749,13 +749,13 @@
         <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -777,13 +777,13 @@
         <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -805,13 +805,13 @@
         <v>610</v>
       </c>
       <c r="D5" t="n">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
@@ -822,18 +822,18 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45862</v>
+        <v>45859</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>414</v>
+        <v>610</v>
       </c>
       <c r="D6" t="n">
-        <v>311</v>
+        <v>584</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -842,15 +842,15 @@
         <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -861,16 +861,16 @@
         <v>414</v>
       </c>
       <c r="D7" t="n">
-        <v>313</v>
+        <v>379</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G7" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>20</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -889,13 +889,13 @@
         <v>414</v>
       </c>
       <c r="D8" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
         <v>78</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -917,13 +917,13 @@
         <v>414</v>
       </c>
       <c r="D9" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
         <v>78</v>
@@ -934,63 +934,63 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45862</v>
+        <v>45860</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>945</v>
+        <v>414</v>
       </c>
       <c r="D10" t="n">
-        <v>894</v>
+        <v>312</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H10" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45861</v>
+        <v>45859</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>945</v>
+        <v>414</v>
       </c>
       <c r="D11" t="n">
-        <v>894</v>
+        <v>311</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H11" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45860</v>
+        <v>45863</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45859</v>
+        <v>45862</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1046,91 +1046,91 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45862</v>
+        <v>45861</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>945</v>
       </c>
       <c r="D14" t="n">
-        <v>922</v>
+        <v>894</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H14" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45861</v>
+        <v>45860</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>922</v>
+        <v>894</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H15" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45860</v>
+        <v>45859</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>922</v>
+        <v>894</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H16" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45859</v>
+        <v>45863</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1162,14 +1162,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>945</v>
       </c>
       <c r="D18" t="n">
-        <v>906</v>
+        <v>922</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -1190,14 +1190,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>906</v>
+        <v>922</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
@@ -1218,14 +1218,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>906</v>
+        <v>922</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
@@ -1246,14 +1246,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>945</v>
       </c>
       <c r="D21" t="n">
-        <v>906</v>
+        <v>922</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1262,346 +1262,346 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>945</v>
       </c>
       <c r="D22" t="n">
-        <v>793</v>
+        <v>906</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
         <v>15</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>945</v>
       </c>
       <c r="D23" t="n">
-        <v>793</v>
+        <v>906</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
         <v>15</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>945</v>
       </c>
       <c r="D24" t="n">
-        <v>793</v>
+        <v>906</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>15</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>945</v>
       </c>
       <c r="D25" t="n">
-        <v>793</v>
+        <v>906</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
         <v>15</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45862</v>
+        <v>45859</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D26" t="n">
-        <v>329</v>
+        <v>906</v>
       </c>
       <c r="E26" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H26" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-khm</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D27" t="n">
-        <v>329</v>
+        <v>793</v>
       </c>
       <c r="E27" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H27" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-khm</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D28" t="n">
-        <v>329</v>
+        <v>793</v>
       </c>
       <c r="E28" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H28" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-khm</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D29" t="n">
-        <v>329</v>
+        <v>793</v>
       </c>
       <c r="E29" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H29" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45862</v>
+        <v>45860</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-khm</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D30" t="n">
-        <v>97</v>
+        <v>793</v>
       </c>
       <c r="E30" t="n">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H30" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45861</v>
+        <v>45859</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-khm</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D31" t="n">
-        <v>97</v>
+        <v>793</v>
       </c>
       <c r="E31" t="n">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H31" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45860</v>
+        <v>45863</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>288</v>
+        <v>509</v>
       </c>
       <c r="D32" t="n">
-        <v>97</v>
+        <v>329</v>
       </c>
       <c r="E32" t="n">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="F32" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45859</v>
+        <v>45862</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>288</v>
+        <v>509</v>
       </c>
       <c r="D33" t="n">
-        <v>97</v>
+        <v>329</v>
       </c>
       <c r="E33" t="n">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="F33" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -1610,20 +1610,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1142</v>
+        <v>509</v>
       </c>
       <c r="D34" t="n">
-        <v>1087</v>
+        <v>329</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>134</v>
       </c>
       <c r="F34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1638,25 +1638,277 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>509</v>
+      </c>
+      <c r="D35" t="n">
+        <v>329</v>
+      </c>
+      <c r="E35" t="n">
+        <v>134</v>
+      </c>
+      <c r="F35" t="n">
+        <v>34</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>509</v>
+      </c>
+      <c r="D36" t="n">
+        <v>329</v>
+      </c>
+      <c r="E36" t="n">
+        <v>134</v>
+      </c>
+      <c r="F36" t="n">
+        <v>34</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>288</v>
+      </c>
+      <c r="D37" t="n">
+        <v>97</v>
+      </c>
+      <c r="E37" t="n">
+        <v>163</v>
+      </c>
+      <c r="F37" t="n">
+        <v>17</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>288</v>
+      </c>
+      <c r="D38" t="n">
+        <v>97</v>
+      </c>
+      <c r="E38" t="n">
+        <v>163</v>
+      </c>
+      <c r="F38" t="n">
+        <v>17</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2</v>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>288</v>
+      </c>
+      <c r="D39" t="n">
+        <v>97</v>
+      </c>
+      <c r="E39" t="n">
+        <v>163</v>
+      </c>
+      <c r="F39" t="n">
+        <v>17</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>288</v>
+      </c>
+      <c r="D40" t="n">
+        <v>97</v>
+      </c>
+      <c r="E40" t="n">
+        <v>163</v>
+      </c>
+      <c r="F40" t="n">
+        <v>17</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>288</v>
+      </c>
+      <c r="D41" t="n">
+        <v>97</v>
+      </c>
+      <c r="E41" t="n">
+        <v>163</v>
+      </c>
+      <c r="F41" t="n">
+        <v>17</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C35" t="n">
+      <c r="C42" t="n">
         <v>1142</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D42" t="n">
         <v>1089</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>41</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1087</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" t="n">
+        <v>41</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1089</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>41</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>12</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,7 +710,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -721,13 +721,13 @@
         <v>610</v>
       </c>
       <c r="D2" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E2" t="n">
         <v>478</v>
       </c>
       <c r="F2" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -749,13 +749,13 @@
         <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>572</v>
+        <v>51</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="F3" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -777,13 +777,13 @@
         <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -805,13 +805,13 @@
         <v>610</v>
       </c>
       <c r="D5" t="n">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
@@ -822,30 +822,30 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45859</v>
+        <v>45866</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>610</v>
+        <v>414</v>
       </c>
       <c r="D6" t="n">
-        <v>584</v>
+        <v>384</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -910,87 +910,87 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>414</v>
+        <v>1142</v>
       </c>
       <c r="D9" t="n">
-        <v>313</v>
+        <v>1087</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="G9" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45860</v>
+        <v>45866</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D10" t="n">
-        <v>312</v>
+        <v>894</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H10" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45859</v>
+        <v>45863</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D11" t="n">
-        <v>311</v>
+        <v>894</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H11" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45863</v>
+        <v>45862</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1018,114 +1018,114 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>945</v>
       </c>
       <c r="D13" t="n">
-        <v>894</v>
+        <v>922</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>945</v>
       </c>
       <c r="D14" t="n">
-        <v>894</v>
+        <v>922</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>894</v>
+        <v>922</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45859</v>
+        <v>45866</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>894</v>
+        <v>906</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>15</v>
       </c>
       <c r="H16" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
@@ -1134,14 +1134,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>945</v>
       </c>
       <c r="D17" t="n">
-        <v>922</v>
+        <v>906</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
@@ -1162,14 +1162,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>945</v>
       </c>
       <c r="D18" t="n">
-        <v>922</v>
+        <v>906</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1178,737 +1178,317 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45861</v>
+        <v>45866</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-khm</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>922</v>
+        <v>793</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H19" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45860</v>
+        <v>45863</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-khm</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>922</v>
+        <v>793</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H20" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45859</v>
+        <v>45862</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-khm</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>945</v>
       </c>
       <c r="D21" t="n">
-        <v>922</v>
+        <v>793</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H21" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D22" t="n">
-        <v>906</v>
+        <v>329</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G22" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D23" t="n">
-        <v>906</v>
+        <v>329</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G23" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D24" t="n">
-        <v>906</v>
+        <v>329</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G24" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45860</v>
+        <v>45866</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>945</v>
+        <v>288</v>
       </c>
       <c r="D25" t="n">
-        <v>906</v>
+        <v>97</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G25" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45859</v>
+        <v>45863</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>945</v>
+        <v>288</v>
       </c>
       <c r="D26" t="n">
-        <v>906</v>
+        <v>97</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G26" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45863</v>
+        <v>45862</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>945</v>
+        <v>288</v>
       </c>
       <c r="D27" t="n">
-        <v>793</v>
+        <v>97</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="F27" t="n">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="G27" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>945</v>
+        <v>1142</v>
       </c>
       <c r="D28" t="n">
-        <v>793</v>
+        <v>233</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>438</v>
       </c>
       <c r="F28" t="n">
-        <v>137</v>
+        <v>459</v>
       </c>
       <c r="G28" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>945</v>
+        <v>1142</v>
       </c>
       <c r="D29" t="n">
-        <v>793</v>
+        <v>1089</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="G29" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>45860</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>masterdata-khm</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>945</v>
-      </c>
-      <c r="D30" t="n">
-        <v>793</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>137</v>
-      </c>
-      <c r="G30" t="n">
-        <v>15</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>masterdata-khm</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>945</v>
-      </c>
-      <c r="D31" t="n">
-        <v>793</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>137</v>
-      </c>
-      <c r="G31" t="n">
-        <v>15</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>45863</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>509</v>
-      </c>
-      <c r="D32" t="n">
-        <v>329</v>
-      </c>
-      <c r="E32" t="n">
-        <v>134</v>
-      </c>
-      <c r="F32" t="n">
-        <v>34</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>45862</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>509</v>
-      </c>
-      <c r="D33" t="n">
-        <v>329</v>
-      </c>
-      <c r="E33" t="n">
-        <v>134</v>
-      </c>
-      <c r="F33" t="n">
-        <v>34</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>509</v>
-      </c>
-      <c r="D34" t="n">
-        <v>329</v>
-      </c>
-      <c r="E34" t="n">
-        <v>134</v>
-      </c>
-      <c r="F34" t="n">
-        <v>34</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>45860</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>509</v>
-      </c>
-      <c r="D35" t="n">
-        <v>329</v>
-      </c>
-      <c r="E35" t="n">
-        <v>134</v>
-      </c>
-      <c r="F35" t="n">
-        <v>34</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>509</v>
-      </c>
-      <c r="D36" t="n">
-        <v>329</v>
-      </c>
-      <c r="E36" t="n">
-        <v>134</v>
-      </c>
-      <c r="F36" t="n">
-        <v>34</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>45863</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>288</v>
-      </c>
-      <c r="D37" t="n">
-        <v>97</v>
-      </c>
-      <c r="E37" t="n">
-        <v>163</v>
-      </c>
-      <c r="F37" t="n">
-        <v>17</v>
-      </c>
-      <c r="G37" t="n">
-        <v>2</v>
-      </c>
-      <c r="H37" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>45862</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>288</v>
-      </c>
-      <c r="D38" t="n">
-        <v>97</v>
-      </c>
-      <c r="E38" t="n">
-        <v>163</v>
-      </c>
-      <c r="F38" t="n">
-        <v>17</v>
-      </c>
-      <c r="G38" t="n">
-        <v>2</v>
-      </c>
-      <c r="H38" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>288</v>
-      </c>
-      <c r="D39" t="n">
-        <v>97</v>
-      </c>
-      <c r="E39" t="n">
-        <v>163</v>
-      </c>
-      <c r="F39" t="n">
-        <v>17</v>
-      </c>
-      <c r="G39" t="n">
-        <v>2</v>
-      </c>
-      <c r="H39" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>45860</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>288</v>
-      </c>
-      <c r="D40" t="n">
-        <v>97</v>
-      </c>
-      <c r="E40" t="n">
-        <v>163</v>
-      </c>
-      <c r="F40" t="n">
-        <v>17</v>
-      </c>
-      <c r="G40" t="n">
-        <v>2</v>
-      </c>
-      <c r="H40" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>288</v>
-      </c>
-      <c r="D41" t="n">
-        <v>97</v>
-      </c>
-      <c r="E41" t="n">
-        <v>163</v>
-      </c>
-      <c r="F41" t="n">
-        <v>17</v>
-      </c>
-      <c r="G41" t="n">
-        <v>2</v>
-      </c>
-      <c r="H41" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>45863</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>1142</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1089</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>41</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>1142</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1087</v>
-      </c>
-      <c r="E43" t="n">
-        <v>2</v>
-      </c>
-      <c r="F43" t="n">
-        <v>41</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>45860</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>1142</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1089</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>41</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
         <v>12</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,7 +710,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -721,13 +721,13 @@
         <v>610</v>
       </c>
       <c r="D2" t="n">
-        <v>40</v>
+        <v>580</v>
       </c>
       <c r="E2" t="n">
-        <v>478</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -749,13 +749,13 @@
         <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E3" t="n">
         <v>478</v>
       </c>
       <c r="F3" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -777,13 +777,13 @@
         <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>572</v>
+        <v>51</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="F4" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -805,13 +805,13 @@
         <v>610</v>
       </c>
       <c r="D5" t="n">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -833,16 +833,16 @@
         <v>414</v>
       </c>
       <c r="D6" t="n">
-        <v>384</v>
+        <v>313</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="H6" t="n">
         <v>20</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -861,13 +861,13 @@
         <v>414</v>
       </c>
       <c r="D7" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -889,16 +889,16 @@
         <v>414</v>
       </c>
       <c r="D8" t="n">
-        <v>311</v>
+        <v>379</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G8" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>20</v>
@@ -906,35 +906,35 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1142</v>
+        <v>414</v>
       </c>
       <c r="D9" t="n">
-        <v>1087</v>
+        <v>384</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1449,13 +1449,13 @@
         <v>1142</v>
       </c>
       <c r="D28" t="n">
-        <v>233</v>
+        <v>1085</v>
       </c>
       <c r="E28" t="n">
-        <v>438</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>459</v>
+        <v>44</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1477,18 +1477,46 @@
         <v>1142</v>
       </c>
       <c r="D29" t="n">
+        <v>233</v>
+      </c>
+      <c r="E29" t="n">
+        <v>438</v>
+      </c>
+      <c r="F29" t="n">
+        <v>459</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D30" t="n">
         <v>1089</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>41</v>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
         <v>12</v>
       </c>
     </row>
